--- a/data/demographic/population_capital_2020.xlsx
+++ b/data/demographic/population_capital_2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjlee/repos/COVID19_SeoulGyeonggi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/demographic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C70329C-2354-2043-AC04-926B11CE4253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7628255C-1CBB-7B4E-A994-8C81C2C09C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" xr2:uid="{88C4493C-6DD7-9643-B354-E7ACA934DADA}"/>
   </bookViews>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>행정구역(동읍면)별</t>
   </si>
   <si>
-    <t>항목</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>0 - 4세</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
   </si>
   <si>
     <t>서울특별시</t>
-  </si>
-  <si>
-    <t>총인구수 (명)</t>
   </si>
   <si>
     <t>경기도</t>
@@ -130,17 +121,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCCCE0"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -193,18 +179,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,345 +501,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A993B7-4E65-7B4F-94FC-965DF54ACD1B}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3">
+        <v>270481</v>
+      </c>
+      <c r="C2" s="3">
+        <v>486768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3">
+        <v>353264</v>
+      </c>
+      <c r="C3" s="3">
+        <v>659216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>270481</v>
-      </c>
-      <c r="D3" s="5">
-        <v>486768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>371652</v>
+      </c>
+      <c r="C4" s="3">
+        <v>660978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
-        <v>353264</v>
-      </c>
-      <c r="D4" s="5">
-        <v>659216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>410214</v>
+      </c>
+      <c r="C5" s="3">
+        <v>667236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
-        <v>371652</v>
-      </c>
-      <c r="D5" s="5">
-        <v>660978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>630115</v>
+      </c>
+      <c r="C6" s="3">
+        <v>856236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
-        <v>410214</v>
-      </c>
-      <c r="D6" s="5">
-        <v>667236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>830296</v>
+      </c>
+      <c r="C7" s="3">
+        <v>951612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
-        <v>630115</v>
-      </c>
-      <c r="D7" s="5">
-        <v>856236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>726382</v>
+      </c>
+      <c r="C8" s="3">
+        <v>861075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
-        <v>830296</v>
-      </c>
-      <c r="D8" s="5">
-        <v>951612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>748724</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1046384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
-        <v>726382</v>
-      </c>
-      <c r="D9" s="5">
-        <v>861075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="3">
+        <v>728008</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1102570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
-        <v>748724</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1046384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>800174</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1196853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>728008</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1102570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="3">
+        <v>784730</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1164819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
-        <v>800174</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1196853</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="3">
+        <v>738826</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1070101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
-        <v>784730</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1164819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="3">
+        <v>714460</v>
+      </c>
+      <c r="C14" s="3">
+        <v>927851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
-        <v>738826</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1070101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3">
+        <v>529494</v>
+      </c>
+      <c r="C15" s="3">
+        <v>604583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
-        <v>714460</v>
-      </c>
-      <c r="D15" s="5">
-        <v>927851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>404546</v>
+      </c>
+      <c r="C16" s="3">
+        <v>433469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
-        <v>529494</v>
-      </c>
-      <c r="D16" s="5">
-        <v>604583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="3">
+        <v>299530</v>
+      </c>
+      <c r="C17" s="3">
+        <v>332346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
-        <v>404546</v>
-      </c>
-      <c r="D17" s="5">
-        <v>433469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>188219</v>
+      </c>
+      <c r="C18" s="3">
+        <v>230649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
-        <v>299530</v>
-      </c>
-      <c r="D18" s="5">
-        <v>332346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="3">
+        <v>89875</v>
+      </c>
+      <c r="C19" s="3">
+        <v>117564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
-        <v>188219</v>
-      </c>
-      <c r="D19" s="5">
-        <v>230649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>33503</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
-        <v>89875</v>
-      </c>
-      <c r="D20" s="5">
-        <v>117564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3">
+        <v>9180</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
-        <v>33503</v>
-      </c>
-      <c r="D21" s="5">
-        <v>42084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5">
-        <v>9180</v>
-      </c>
-      <c r="D22" s="5">
-        <v>10305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B22" s="3">
         <v>6792</v>
       </c>
-      <c r="D23" s="5">
+      <c r="C22" s="3">
         <v>4315</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>